--- a/xls_config/xlsx/party_daily_task.xlsx
+++ b/xls_config/xlsx/party_daily_task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22995" windowHeight="9090"/>
+    <workbookView windowWidth="28125" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -48,6 +48,9 @@
     <t>npc_id</t>
   </si>
   <si>
+    <t>monster</t>
+  </si>
+  <si>
     <t>帮派日常任务表</t>
   </si>
   <si>
@@ -78,7 +81,10 @@
     <t>npc名字</t>
   </si>
   <si>
-    <t>帮派-日常任务</t>
+    <t>怪物名字</t>
+  </si>
+  <si>
+    <t>帮派日常-购买灵药</t>
   </si>
   <si>
     <t>向#P杜卜思|E=【帮派】购买20颗灵药|$0#P购买灵药</t>
@@ -87,10 +93,46 @@
     <t>向#P帮派总管|E=【帮派】将灵药交给总管|$0#P上交灵药</t>
   </si>
   <si>
+    <t>帮派日常-购买灵兽</t>
+  </si>
+  <si>
     <t>向#P董老头|E=【帮派】购买2只野生灵兽|$0#p购买野生灵兽</t>
   </si>
   <si>
+    <t>向#P董老头|E=【帮派】购买2只野生灵兽|$0#P购买野生灵兽</t>
+  </si>
+  <si>
     <t>向#P帮派总管|E=【帮派】将野生灵兽交给总管|$0#P上交灵兽</t>
+  </si>
+  <si>
+    <t>帮派日常-消灭鼠患</t>
+  </si>
+  <si>
+    <t>消灭#Z老鼠|帮派总坛(12,42)|$1#Z</t>
+  </si>
+  <si>
+    <t>消灭#Z老鼠|帮派总坛(25,17)|$1#Z</t>
+  </si>
+  <si>
+    <t>老鼠</t>
+  </si>
+  <si>
+    <t>向#P帮派总管|E=【帮派】复命|$0#P消灭鼠患</t>
+  </si>
+  <si>
+    <t>向#P帮派总管|$0#P消灭鼠患</t>
+  </si>
+  <si>
+    <t>帮派日常-消灭蛇患</t>
+  </si>
+  <si>
+    <t>消灭#Z蛇妖|帮派总坛(25,17)|$1#Z</t>
+  </si>
+  <si>
+    <t>蛇妖</t>
+  </si>
+  <si>
+    <t>向#P帮派总管|$0#P复命</t>
   </si>
 </sst>
 </file>
@@ -112,6 +154,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -126,8 +222,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,33 +261,18 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,40 +284,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,36 +297,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -265,187 +307,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,26 +501,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,17 +521,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,8 +558,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,8 +582,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,10 +606,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +618,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,21 +1100,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="D4:D8 E12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="29.375" customWidth="1"/>
+    <col min="5" max="5" width="53.25" customWidth="1"/>
     <col min="6" max="6" width="23.5" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="10" max="11" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1103,40 +1145,46 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1144,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1161,8 +1209,11 @@
       <c r="J3">
         <v>1006</v>
       </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1170,13 +1221,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1193,8 +1244,11 @@
       <c r="J4">
         <v>965</v>
       </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1202,13 +1256,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>1000</v>
@@ -1225,8 +1279,11 @@
       <c r="J5">
         <v>1006</v>
       </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1234,7 +1291,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1251,8 +1308,11 @@
       <c r="J6">
         <v>1006</v>
       </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1260,13 +1320,13 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1283,8 +1343,11 @@
       <c r="J7">
         <v>974</v>
       </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1292,28 +1355,229 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F8">
         <v>1000</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>1006</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1006</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>26000</v>
+      </c>
+      <c r="H10">
+        <v>25</v>
+      </c>
+      <c r="I10">
+        <v>17</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1006</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1006</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>26000</v>
+      </c>
+      <c r="H13">
+        <v>25</v>
+      </c>
+      <c r="I13">
+        <v>17</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1006</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/xls_config/xlsx/party_daily_task.xlsx
+++ b/xls_config/xlsx/party_daily_task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>向#P帮派总管|$0#P复命</t>
+  </si>
+  <si>
+    <t>帮派日常-消灭盗贼</t>
+  </si>
+  <si>
+    <t>消灭#Z帮派盗贼|帮派总坛(25,17)|$1#Z</t>
+  </si>
+  <si>
+    <t>帮派盗贼</t>
   </si>
 </sst>
 </file>
@@ -140,10 +149,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -151,6 +160,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,6 +178,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -170,6 +201,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -178,47 +246,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,23 +262,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,22 +286,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -307,25 +316,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,7 +424,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,61 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,79 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,11 +510,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,17 +540,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,7 +592,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1100,10 +1109,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1577,6 +1586,105 @@
         <v>1006</v>
       </c>
       <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1006</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>26000</v>
+      </c>
+      <c r="H16">
+        <v>25</v>
+      </c>
+      <c r="I16">
+        <v>17</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1006</v>
+      </c>
+      <c r="K17">
         <v>0</v>
       </c>
     </row>
